--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\ms4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300DBE9-D330-446F-BED9-AB946A96B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6763900E-4393-43D0-8BE2-B30107C7C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,64 +211,76 @@
     <t>test_addRoute4</t>
   </si>
   <si>
-    <t>Test that the function does nothing when given an empty route</t>
-  </si>
-  <si>
-    <t>Test that the function does not try to access places outside the map</t>
-  </si>
-  <si>
-    <t>Test if function correctly places a single point route on valid space on the map</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap().
-2. Create empty route.
-3. Verify results.</t>
-  </si>
-  <si>
-    <t>Returned map should be the same as the original map.</t>
-  </si>
-  <si>
-    <t>Tests that the function does not overlap or modify existing buildings on the map</t>
-  </si>
-  <si>
-    <t>Route Symbol: G
-Route: { }</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap().
-2. Create route with a point outside the 25x25 grid.
-3. Verify results.</t>
-  </si>
-  <si>
-    <t>Route Symbol: B
-Route: { 25, 25 }</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap().
-2. Create route with a point on open space.
-3. Verify results.</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap().
-2. Create route with multiple points on open space.
-3. Verify results.</t>
-  </si>
-  <si>
-    <t>Route Symbol: Y
-Route: { 4, 8 }</t>
-  </si>
-  <si>
-    <t>Route Symbol: B
-Route: { (10,18), (10,19), (10,20) }</t>
-  </si>
-  <si>
-    <t>Returned map should not have a point outside the grid. Original map should not change.</t>
-  </si>
-  <si>
-    <t>Returned map should have a single point with the symbol Y.</t>
-  </si>
-  <si>
-    <t>Returned map should have multiple points with the symbol B.</t>
+    <t>Test that the function prints nothing when two routes are incorrectly passed instead of one map and one route.</t>
+  </si>
+  <si>
+    <t>Test that the function properly adds the blue route to the map</t>
+  </si>
+  <si>
+    <t>Test that the function properly adds the yellow route to the map</t>
+  </si>
+  <si>
+    <t>Test that the function properly adds the green route to the map</t>
+  </si>
+  <si>
+    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
+2. Initialize a Route struct variable with getBlueRoute().
+3. Initialize a Map struct with addRoute(), adding the base map and the blue route.
+4. Print the map with route using printMap().
+5. Verify results.</t>
+  </si>
+  <si>
+    <t>1. Initialize a Route struct variable with getYellowRoute().
+2. Initialize a Route struct variable with getBlueRoute().
+3. Initialize a Map struct with addRoute(), adding both routes.
+4. Print the map with route using printMap().
+5. Verify results.</t>
+  </si>
+  <si>
+    <t>Should print/display nothing since there is no base map to add routes.</t>
+  </si>
+  <si>
+    <t>Returned map should display the base map with the blue route (B symbol).</t>
+  </si>
+  <si>
+    <t>baseMap = populateMap() (get the base map)
+newRoute = getBlueRoute()
+addRoute(&amp;baseMap, &amp;newRoute)</t>
+  </si>
+  <si>
+    <t>newRoute1 = getYellowRoute()
+newRoute2 = getBlueRoute()
+addRoute(&amp;newRoute1, &amp;newRoute2)</t>
+  </si>
+  <si>
+    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
+2. Initialize a Route struct variable with getGreenRoute().
+3. Initialize a Map struct with addRoute(), adding the base map and the green route.
+4. Print the map with route using printMap().
+5. Verify results.</t>
+  </si>
+  <si>
+    <t>baseMap = populateMap() (get the base map)
+newRoute = getGreenRoute()
+addRoute(&amp;baseMap, &amp;newRoute)</t>
+  </si>
+  <si>
+    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
+2. Initialize a Route struct variable with getYellowRoute().
+3. Initialize a Map struct with addRoute(), adding the base map and the yellow route.
+4. Print the map with route using printMap().
+5. Verify results.</t>
+  </si>
+  <si>
+    <t>baseMap = populateMap() (get the base map)
+newRoute = getYellowRoute()
+addRoute(&amp;baseMap, &amp;newRoute)</t>
+  </si>
+  <si>
+    <t>Returned map should display the base map with the green route (G symbol).</t>
+  </si>
+  <si>
+    <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
 </sst>
 </file>
@@ -616,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +816,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -812,16 +824,16 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -829,16 +841,16 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -846,7 +858,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>56</v>
@@ -855,18 +867,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>60</v>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\ms4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6763900E-4393-43D0-8BE2-B30107C7C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B4F29C-AB7E-4625-9C6D-A5B77EA6ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -282,12 +282,249 @@
   <si>
     <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
+  <si>
+    <t>test_path1</t>
+  </si>
+  <si>
+    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 1A (office location). 
+2. Set destination to 5E.  
+3. Run the algorithm to calculate the path. 
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Point: 1A
+Destination: 5E	</t>
+  </si>
+  <si>
+    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
+  </si>
+  <si>
+    <t>test_path2</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
+  </si>
+  <si>
+    <t>Starting Point: 10K
+Destination: 17L</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 10K .
+2. Set destination to 17L.
+3. Run the algorithm to calculate the path.	
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
+  </si>
+  <si>
+    <t>test_path3</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 6E
+2. Set destination to 2H (blocked by buildings)
+3. Run the algorithm to calculate the path.	
+4. Verify the system's response.</t>
+  </si>
+  <si>
+    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
+  </si>
+  <si>
+    <t>Starting Point: 6E
+Destination: 2H</t>
+  </si>
+  <si>
+    <t>test_path4</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm handles a diversion path around a building.</t>
+  </si>
+  <si>
+    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
+  </si>
+  <si>
+    <t>Starting Point: 18v
+Destination: 7Y</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 18V (blue route).
+2. Set destination to 7Y.
+3. Run the algorithm to calculate the path.
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t>test_assign1</t>
+  </si>
+  <si>
+    <t>Verify if the function assigns the package to the closest truck (blue route).</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 2000 kg, Volume = 80 m³.
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F</t>
+  </si>
+  <si>
+    <t>Package assigned to Truck 1 (Blue).</t>
+  </si>
+  <si>
+    <t>test_assign2</t>
+  </si>
+  <si>
+    <t>Verify if the function assigns the package to the next closest truck when the closest truck is full.</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (on blue route).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4.Verify which truck is assigned the package.</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2000 kg, Volume = 80 m³.
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (on blue route).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4. Verify which truck is assigned the package.</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F</t>
+  </si>
+  <si>
+    <t>Package assigned to Truck 2 (Green).</t>
+  </si>
+  <si>
+    <t>test_assign3</t>
+  </si>
+  <si>
+    <t>Verify if the function assigns the package to the truck with the most available capacity when two trucks are equidistant.</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2000 kg, Volume = 80 m³.
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (equidistant from both trucks).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4. Verify which truck is assigned the package</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the function rejects the package when all trucks are full.
+</t>
+  </si>
+  <si>
+    <t>test_assign4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
+2. Enter package details: Weight = 500 kg, Size = 5 m³.
+3. Verify the system's response.
+</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
+Package: Weight = 500 kg, Size = 5 m³.</t>
+  </si>
+  <si>
+    <t>Expected Result: "Ships tomorrow."</t>
+  </si>
+  <si>
+    <t>test_max1</t>
+  </si>
+  <si>
+    <t>Verify if the function accepts a package that exactly fills the remaining capacity of a truck.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2000 kg and volume = 80 m³.
+2. Enter package details: Weight = 500 kg, Size = 20 m³.
+3. Verify if the package is accepted.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2000 kg, Volume = 80 m³.
+Package: Weight = 500 kg, Size = 20 m³.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Package accepted (truck reaches maximum capacity: 2500 kg and 100 m³).</t>
+  </si>
+  <si>
+    <t>test_max2</t>
+  </si>
+  <si>
+    <t>Verify if the function rejects a package that exceeds the truck's maximum weight capacity.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2400 kg and volume = 80 m³.
+2. Enter package details: Weight = 200 kg, Size = 5 m³.
+3. Verify if the package is rejected.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2400 kg, Volume = 80 m³.
+Package: Weight = 200 kg, Size = 5 m³.</t>
+  </si>
+  <si>
+    <t>Package rejected (exceeds maximum weight capacity of 2500 kg).</t>
+  </si>
+  <si>
+    <t>test_max3</t>
+  </si>
+  <si>
+    <t>Verify if the function rejects a package that exceeds the truck's maximum volume capacity.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2000 kg and volume = 95 m³.
+2. Enter package details: Weight = C36100 kg, Size = 10 m³.
+3. Verify if the package is rejected.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2000 kg, Volume = 95 m³.
+Package: Weight = 100 kg, Size = 10 m³.</t>
+  </si>
+  <si>
+    <t>Package rejected (exceeds maximum volume capacity of 100 m³).</t>
+  </si>
+  <si>
+    <t>test_max4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the function assigns the package to another truck when the closest truck is at maximum capacity.
+</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination closer to Truck 1 but within reach of Truck 2 (e.g., 7F).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4. Verify which truck is assigned the package.</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F.</t>
+  </si>
+  <si>
+    <t>Expected Result: Package assigned to Truck 2 (Green) (next closest truck with available capacity).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +536,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,6 +589,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,20 +875,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="5" width="26.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="5" width="26.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -696,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -713,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -730,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -739,7 +988,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -756,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -773,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -790,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -807,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -816,7 +1065,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -833,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -850,7 +1099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -867,7 +1116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -884,7 +1133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -893,6 +1142,237 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
+    <row r="17" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B4F29C-AB7E-4625-9C6D-A5B77EA6ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D49CBCB-F591-4C73-BB62-1C8FC989C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -283,82 +283,6 @@
     <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
   <si>
-    <t>test_path1</t>
-  </si>
-  <si>
-    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 1A (office location). 
-2. Set destination to 5E.  
-3. Run the algorithm to calculate the path. 
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Point: 1A
-Destination: 5E	</t>
-  </si>
-  <si>
-    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
-  </si>
-  <si>
-    <t>test_path2</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
-  </si>
-  <si>
-    <t>Starting Point: 10K
-Destination: 17L</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 10K .
-2. Set destination to 17L.
-3. Run the algorithm to calculate the path.	
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
-  </si>
-  <si>
-    <t>test_path3</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 6E
-2. Set destination to 2H (blocked by buildings)
-3. Run the algorithm to calculate the path.	
-4. Verify the system's response.</t>
-  </si>
-  <si>
-    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
-  </si>
-  <si>
-    <t>Starting Point: 6E
-Destination: 2H</t>
-  </si>
-  <si>
-    <t>test_path4</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm handles a diversion path around a building.</t>
-  </si>
-  <si>
-    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
-  </si>
-  <si>
-    <t>Starting Point: 18v
-Destination: 7Y</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 18V (blue route).
-2. Set destination to 7Y.
-3. Run the algorithm to calculate the path.
-4. Verify the calculated path.</t>
-  </si>
-  <si>
     <t>test_assign1</t>
   </si>
   <si>
@@ -442,82 +366,150 @@
     <t>Expected Result: "Ships tomorrow."</t>
   </si>
   <si>
-    <t>test_max1</t>
-  </si>
-  <si>
-    <t>Verify if the function accepts a package that exactly fills the remaining capacity of a truck.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2000 kg and volume = 80 m³.
-2. Enter package details: Weight = 500 kg, Size = 20 m³.
-3. Verify if the package is accepted.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2000 kg, Volume = 80 m³.
-Package: Weight = 500 kg, Size = 20 m³.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Package accepted (truck reaches maximum capacity: 2500 kg and 100 m³).</t>
-  </si>
-  <si>
-    <t>test_max2</t>
-  </si>
-  <si>
-    <t>Verify if the function rejects a package that exceeds the truck's maximum weight capacity.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2400 kg and volume = 80 m³.
-2. Enter package details: Weight = 200 kg, Size = 5 m³.
-3. Verify if the package is rejected.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2400 kg, Volume = 80 m³.
-Package: Weight = 200 kg, Size = 5 m³.</t>
-  </si>
-  <si>
-    <t>Package rejected (exceeds maximum weight capacity of 2500 kg).</t>
-  </si>
-  <si>
-    <t>test_max3</t>
-  </si>
-  <si>
-    <t>Verify if the function rejects a package that exceeds the truck's maximum volume capacity.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2000 kg and volume = 95 m³.
-2. Enter package details: Weight = C36100 kg, Size = 10 m³.
-3. Verify if the package is rejected.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2000 kg, Volume = 95 m³.
-Package: Weight = 100 kg, Size = 10 m³.</t>
-  </si>
-  <si>
-    <t>Package rejected (exceeds maximum volume capacity of 100 m³).</t>
-  </si>
-  <si>
-    <t>test_max4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify if the function assigns the package to another truck when the closest truck is at maximum capacity.
+    <t>test_divert1</t>
+  </si>
+  <si>
+    <t>test_divert2</t>
+  </si>
+  <si>
+    <t>test_divert4</t>
+  </si>
+  <si>
+    <t>test_divert3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly calculates the diversion path for a valid shipment.</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 8P.</t>
+  </si>
+  <si>
+    <t>Expected Result: Diversion path calculated (e.g., 11K → 10K → 9K → 8K → 8P).</t>
+  </si>
+  <si>
+    <t>Verify if the divert function returns -1 for an invalid shipment (invalid destination).</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 0A (invalid).</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (invalid shipment).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function returns -1 when the destination is unreachable (blocked by buildings).</t>
+  </si>
+  <si>
+    <t>Map: Buildings block the path to the destination (e.g., 15Q).
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 15Q.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (destination unreachable).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly prints the diversion path.</t>
+  </si>
+  <si>
+    <t>Expected Result: Printed diversion path (e.g., "divert 11K, 10K, 9K, 8K, 8P").</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the calculated diversion path.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and an invalid shipment (destination outside the map or not a building).
+2. Call the divert function with the shipment and truck.
+3. Verify the return value.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map with buildings blocking the path to the destination.
+Initialize a truck and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the return value."</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the printed diversion path.</t>
+  </si>
+  <si>
+    <t>test_slot1</t>
+  </si>
+  <si>
+    <t>test_slot2</t>
+  </si>
+  <si>
+    <t>test_slot3</t>
+  </si>
+  <si>
+    <t>test_slot4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns the correct index for an empty slot.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with one empty slot.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 0 kg, Size = 0 m³}].
+MaxPackages: 2.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return 1 (index of the empty slot).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns -1 when all slots are occupied.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with no empty slots.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 300 kg, Size = 3 m³}].
+MaxPackages: 2.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (no empty slots).</t>
+  </si>
+  <si>
+    <t>Verify if the findNextAvailableSlot function correctly identifies the first empty slot in a partially filled array.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with multiple empty slots.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 0 kg, Size = 0 m³}, {Weight = 0 kg, Size = 0 m³}].
+MaxPackages: 3.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return 1 (index of the first empty slot).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the findNextAvailableSlot function handles an empty array correctly.
 </t>
   </si>
   <si>
-    <t>1. Initialize two trucks:
-Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-2. Set destination closer to Truck 1 but within reach of Truck 2 (e.g., 7F).
-3. Enter package details: Weight = 500 kg, Size = 5 m³.
-4. Verify which truck is assigned the package.</t>
-  </si>
-  <si>
-    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-Package: Weight = 500 kg, Size = 5 m³.
-Destination: 7F.</t>
-  </si>
-  <si>
-    <t>Expected Result: Package assigned to Truck 2 (Green) (next closest truck with available capacity).</t>
+    <t>1. Initialize an empty array of shipments.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [].
+MaxPackages: 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result: Return -1 (no slots available).
+</t>
   </si>
 </sst>
 </file>
@@ -573,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,6 +586,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,72 +1143,72 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1221,70 +1222,70 @@
     </row>
     <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1296,43 +1297,43 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>110</v>
@@ -1347,21 +1348,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntg18\Documents\GitHub\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B4F29C-AB7E-4625-9C6D-A5B77EA6ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511B523-CF9D-4825-A456-68A4EB8564B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,48 +155,10 @@
   </si>
   <si>
     <t>SHIPMENT
-weight: 300 kg
-size: 20
-MAP
-map.squares[1][1] = 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row 'B', col '1')
-2. Enter shipment weight = 300 kg and size = 20
-3. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
 weight: 5001 kg
 size: 2
 MAP
 map.squares[1][2] = 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row 'B', col '2')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 10 kg
-size: 3
-MAP
-map.squares[6][0] != 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row 'G', col '0')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 20 kg
-size: 9
-MAP
-map.squares[0][26] != 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 20 kg, size = 9, address = (row 'A', col '26')
-2. Verify result.</t>
   </si>
   <si>
     <t>test_addRoute1</t>
@@ -518,6 +480,44 @@
   </si>
   <si>
     <t>Expected Result: Package assigned to Truck 2 (Green) (next closest truck with available capacity).</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row '1', col 'B')
+2. Enter shipment weight = 300 kg and size = 20
+3. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 300 kg
+size: 2
+MAP
+map.squares[1][1] = 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row '2', col 'B')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row '0', col 'G')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 10 kg
+size: 2
+MAP
+map.squares[0][6] != 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 20 kg, size = 2, address = (row '26', col 'A')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 20 kg
+size: 2
+MAP
+map.squares[26][0] != 1</t>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,10 +996,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
@@ -1013,10 +1013,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -1067,70 +1067,70 @@
     </row>
     <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1144,70 +1144,70 @@
     </row>
     <row r="17" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1221,70 +1221,70 @@
     </row>
     <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1298,70 +1298,70 @@
     </row>
     <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntg18\Documents\GitHub\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511B523-CF9D-4825-A456-68A4EB8564B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E201348-3CD2-4311-AA3A-E927B899A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -333,21 +333,10 @@
 Destination: 7F</t>
   </si>
   <si>
-    <t>Package assigned to Truck 1 (Blue).</t>
-  </si>
-  <si>
     <t>test_assign2</t>
   </si>
   <si>
     <t>Verify if the function assigns the package to the next closest truck when the closest truck is full.</t>
-  </si>
-  <si>
-    <t>1. Initialize two trucks:
-Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-2. Set destination to 7F (on blue route).
-3. Enter package details: Weight = 500 kg, Size = 5 m³.
-4.Verify which truck is assigned the package.</t>
   </si>
   <si>
     <t>1. Initialize two trucks:
@@ -358,15 +347,6 @@
 4. Verify which truck is assigned the package.</t>
   </si>
   <si>
-    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-Package: Weight = 500 kg, Size = 5 m³.
-Destination: 7F</t>
-  </si>
-  <si>
-    <t>Package assigned to Truck 2 (Green).</t>
-  </si>
-  <si>
     <t>test_assign3</t>
   </si>
   <si>
@@ -388,22 +368,6 @@
     <t>test_assign4</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Initialize two trucks:
-Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
-2. Enter package details: Weight = 500 kg, Size = 5 m³.
-3. Verify the system's response.
-</t>
-  </si>
-  <si>
-    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
-Package: Weight = 500 kg, Size = 5 m³.</t>
-  </si>
-  <si>
-    <t>Expected Result: "Ships tomorrow."</t>
-  </si>
-  <si>
     <t>test_max1</t>
   </si>
   <si>
@@ -518,6 +482,36 @@
 size: 2
 MAP
 map.squares[26][0] != 1</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (on blue route).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4.Verify which truck is assigned the package.</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Initialize two trucks:
+Truck 1 (Blue): Weight = 5000 kg, Volume = 2500 m³ (full).
+Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
+2. Enter package details: Weight = 500 kg, Size = 5 m³.
+3. Verify the system's response.
+</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
+Package: Weight = 500 kg, Size = 5 m³.</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -877,18 +871,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="5" width="26.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="6" width="26.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,14 +897,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -927,8 +920,14 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -944,8 +943,14 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -961,8 +966,14 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -978,17 +989,23 @@
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -996,16 +1013,22 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -1021,8 +1044,14 @@
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1030,16 +1059,22 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1047,25 +1082,31 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1081,8 +1122,9 @@
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1098,8 +1140,9 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1133,16 +1176,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1159,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1193,7 +1236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1210,16 +1253,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
@@ -1227,150 +1270,174 @@
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
   </sheetData>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E201348-3CD2-4311-AA3A-E927B899A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D49CBCB-F591-4C73-BB62-1C8FC989C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -155,10 +155,48 @@
   </si>
   <si>
     <t>SHIPMENT
+weight: 300 kg
+size: 20
+MAP
+map.squares[1][1] = 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row 'B', col '1')
+2. Enter shipment weight = 300 kg and size = 20
+3. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
 weight: 5001 kg
 size: 2
 MAP
 map.squares[1][2] = 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row 'B', col '2')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 10 kg
+size: 3
+MAP
+map.squares[6][0] != 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row 'G', col '0')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 20 kg
+size: 9
+MAP
+map.squares[0][26] != 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 20 kg, size = 9, address = (row 'A', col '26')
+2. Verify result.</t>
   </si>
   <si>
     <t>test_addRoute1</t>
@@ -245,82 +283,6 @@
     <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
   <si>
-    <t>test_path1</t>
-  </si>
-  <si>
-    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 1A (office location). 
-2. Set destination to 5E.  
-3. Run the algorithm to calculate the path. 
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Point: 1A
-Destination: 5E	</t>
-  </si>
-  <si>
-    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
-  </si>
-  <si>
-    <t>test_path2</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
-  </si>
-  <si>
-    <t>Starting Point: 10K
-Destination: 17L</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 10K .
-2. Set destination to 17L.
-3. Run the algorithm to calculate the path.	
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
-  </si>
-  <si>
-    <t>test_path3</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 6E
-2. Set destination to 2H (blocked by buildings)
-3. Run the algorithm to calculate the path.	
-4. Verify the system's response.</t>
-  </si>
-  <si>
-    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
-  </si>
-  <si>
-    <t>Starting Point: 6E
-Destination: 2H</t>
-  </si>
-  <si>
-    <t>test_path4</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm handles a diversion path around a building.</t>
-  </si>
-  <si>
-    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
-  </si>
-  <si>
-    <t>Starting Point: 18v
-Destination: 7Y</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 18V (blue route).
-2. Set destination to 7Y.
-3. Run the algorithm to calculate the path.
-4. Verify the calculated path.</t>
-  </si>
-  <si>
     <t>test_assign1</t>
   </si>
   <si>
@@ -333,10 +295,21 @@
 Destination: 7F</t>
   </si>
   <si>
+    <t>Package assigned to Truck 1 (Blue).</t>
+  </si>
+  <si>
     <t>test_assign2</t>
   </si>
   <si>
     <t>Verify if the function assigns the package to the next closest truck when the closest truck is full.</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (on blue route).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4.Verify which truck is assigned the package.</t>
   </si>
   <si>
     <t>1. Initialize two trucks:
@@ -347,6 +320,15 @@
 4. Verify which truck is assigned the package.</t>
   </si>
   <si>
+    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F</t>
+  </si>
+  <si>
+    <t>Package assigned to Truck 2 (Green).</t>
+  </si>
+  <si>
     <t>test_assign3</t>
   </si>
   <si>
@@ -368,150 +350,166 @@
     <t>test_assign4</t>
   </si>
   <si>
-    <t>test_max1</t>
-  </si>
-  <si>
-    <t>Verify if the function accepts a package that exactly fills the remaining capacity of a truck.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2000 kg and volume = 80 m³.
-2. Enter package details: Weight = 500 kg, Size = 20 m³.
-3. Verify if the package is accepted.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2000 kg, Volume = 80 m³.
-Package: Weight = 500 kg, Size = 20 m³.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Package accepted (truck reaches maximum capacity: 2500 kg and 100 m³).</t>
-  </si>
-  <si>
-    <t>test_max2</t>
-  </si>
-  <si>
-    <t>Verify if the function rejects a package that exceeds the truck's maximum weight capacity.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2400 kg and volume = 80 m³.
-2. Enter package details: Weight = 200 kg, Size = 5 m³.
-3. Verify if the package is rejected.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2400 kg, Volume = 80 m³.
-Package: Weight = 200 kg, Size = 5 m³.</t>
-  </si>
-  <si>
-    <t>Package rejected (exceeds maximum weight capacity of 2500 kg).</t>
-  </si>
-  <si>
-    <t>test_max3</t>
-  </si>
-  <si>
-    <t>Verify if the function rejects a package that exceeds the truck's maximum volume capacity.</t>
-  </si>
-  <si>
-    <t>1. Initialize a truck with weight = 2000 kg and volume = 95 m³.
-2. Enter package details: Weight = C36100 kg, Size = 10 m³.
-3. Verify if the package is rejected.</t>
-  </si>
-  <si>
-    <t>Truck: Weight = 2000 kg, Volume = 95 m³.
-Package: Weight = 100 kg, Size = 10 m³.</t>
-  </si>
-  <si>
-    <t>Package rejected (exceeds maximum volume capacity of 100 m³).</t>
-  </si>
-  <si>
-    <t>test_max4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify if the function assigns the package to another truck when the closest truck is at maximum capacity.
-</t>
-  </si>
-  <si>
-    <t>1. Initialize two trucks:
+    <t xml:space="preserve">1. Initialize two trucks:
 Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-2. Set destination closer to Truck 1 but within reach of Truck 2 (e.g., 7F).
-3. Enter package details: Weight = 500 kg, Size = 5 m³.
-4. Verify which truck is assigned the package.</t>
-  </si>
-  <si>
-    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-Package: Weight = 500 kg, Size = 5 m³.
-Destination: 7F.</t>
-  </si>
-  <si>
-    <t>Expected Result: Package assigned to Truck 2 (Green) (next closest truck with available capacity).</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row '1', col 'B')
-2. Enter shipment weight = 300 kg and size = 20
-3. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 300 kg
-size: 2
-MAP
-map.squares[1][1] = 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row '2', col 'B')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row '0', col 'G')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 10 kg
-size: 2
-MAP
-map.squares[0][6] != 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 20 kg, size = 2, address = (row '26', col 'A')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 20 kg
-size: 2
-MAP
-map.squares[26][0] != 1</t>
-  </si>
-  <si>
-    <t>1. Initialize two trucks:
-Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-2. Set destination to 7F (on blue route).
-3. Enter package details: Weight = 500 kg, Size = 5 m³.
-4.Verify which truck is assigned the package.</t>
-  </si>
-  <si>
-    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-Package: Weight = 500 kg, Size = 5 m³.
-Destination: 7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Initialize two trucks:
-Truck 1 (Blue): Weight = 5000 kg, Volume = 2500 m³ (full).
-Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
 2. Enter package details: Weight = 500 kg, Size = 5 m³.
 3. Verify the system's response.
 </t>
   </si>
   <si>
-    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
-Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
+    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
 Package: Weight = 500 kg, Size = 5 m³.</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>Expected Result: "Ships tomorrow."</t>
+  </si>
+  <si>
+    <t>test_divert1</t>
+  </si>
+  <si>
+    <t>test_divert2</t>
+  </si>
+  <si>
+    <t>test_divert4</t>
+  </si>
+  <si>
+    <t>test_divert3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly calculates the diversion path for a valid shipment.</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 8P.</t>
+  </si>
+  <si>
+    <t>Expected Result: Diversion path calculated (e.g., 11K → 10K → 9K → 8K → 8P).</t>
+  </si>
+  <si>
+    <t>Verify if the divert function returns -1 for an invalid shipment (invalid destination).</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 0A (invalid).</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (invalid shipment).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function returns -1 when the destination is unreachable (blocked by buildings).</t>
+  </si>
+  <si>
+    <t>Map: Buildings block the path to the destination (e.g., 15Q).
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 15Q.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (destination unreachable).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly prints the diversion path.</t>
+  </si>
+  <si>
+    <t>Expected Result: Printed diversion path (e.g., "divert 11K, 10K, 9K, 8K, 8P").</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the calculated diversion path.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and an invalid shipment (destination outside the map or not a building).
+2. Call the divert function with the shipment and truck.
+3. Verify the return value.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map with buildings blocking the path to the destination.
+Initialize a truck and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the return value."</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the printed diversion path.</t>
+  </si>
+  <si>
+    <t>test_slot1</t>
+  </si>
+  <si>
+    <t>test_slot2</t>
+  </si>
+  <si>
+    <t>test_slot3</t>
+  </si>
+  <si>
+    <t>test_slot4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns the correct index for an empty slot.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with one empty slot.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 0 kg, Size = 0 m³}].
+MaxPackages: 2.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return 1 (index of the empty slot).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns -1 when all slots are occupied.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with no empty slots.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 300 kg, Size = 3 m³}].
+MaxPackages: 2.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (no empty slots).</t>
+  </si>
+  <si>
+    <t>Verify if the findNextAvailableSlot function correctly identifies the first empty slot in a partially filled array.</t>
+  </si>
+  <si>
+    <t>1. Initialize an array of shipments with multiple empty slots.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [{Weight = 500 kg, Size = 5 m³}, {Weight = 0 kg, Size = 0 m³}, {Weight = 0 kg, Size = 0 m³}].
+MaxPackages: 3.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return 1 (index of the first empty slot).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the findNextAvailableSlot function handles an empty array correctly.
+</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty array of shipments.
+2. Call the findNextAvailableSlot function.
+3. Verify the returned index.</t>
+  </si>
+  <si>
+    <t>Shipments: [].
+MaxPackages: 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result: Return -1 (no slots available).
+</t>
   </si>
 </sst>
 </file>
@@ -567,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,6 +586,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,17 +878,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="6" width="26.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="5" width="26.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,14 +905,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -920,14 +928,8 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,14 +945,8 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,14 +962,8 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,23 +979,17 @@
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1013,22 +997,16 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1036,22 +1014,16 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1059,22 +1031,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1082,362 +1048,330 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
   </sheetData>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\ms4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D49CBCB-F591-4C73-BB62-1C8FC989C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24477BE9-F0A4-4A38-BEF4-829AF8199A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -155,48 +155,10 @@
   </si>
   <si>
     <t>SHIPMENT
-weight: 300 kg
-size: 20
-MAP
-map.squares[1][1] = 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row 'B', col '1')
-2. Enter shipment weight = 300 kg and size = 20
-3. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
 weight: 5001 kg
 size: 2
 MAP
 map.squares[1][2] = 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row 'B', col '2')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 10 kg
-size: 3
-MAP
-map.squares[6][0] != 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row 'G', col '0')
-2. Verify result.</t>
-  </si>
-  <si>
-    <t>SHIPMENT
-weight: 20 kg
-size: 9
-MAP
-map.squares[0][26] != 1</t>
-  </si>
-  <si>
-    <t>1. Enter shipment weight = 20 kg, size = 9, address = (row 'A', col '26')
-2. Verify result.</t>
   </si>
   <si>
     <t>test_addRoute1</t>
@@ -283,6 +245,82 @@
     <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
   <si>
+    <t>test_path1</t>
+  </si>
+  <si>
+    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 1A (office location). 
+2. Set destination to 5E.  
+3. Run the algorithm to calculate the path. 
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Point: 1A
+Destination: 5E	</t>
+  </si>
+  <si>
+    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
+  </si>
+  <si>
+    <t>test_path2</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
+  </si>
+  <si>
+    <t>Starting Point: 10K
+Destination: 17L</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 10K .
+2. Set destination to 17L.
+3. Run the algorithm to calculate the path.	
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
+  </si>
+  <si>
+    <t>test_path3</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 6E
+2. Set destination to 2H (blocked by buildings)
+3. Run the algorithm to calculate the path.	
+4. Verify the system's response.</t>
+  </si>
+  <si>
+    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
+  </si>
+  <si>
+    <t>Starting Point: 6E
+Destination: 2H</t>
+  </si>
+  <si>
+    <t>test_path4</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm handles a diversion path around a building.</t>
+  </si>
+  <si>
+    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
+  </si>
+  <si>
+    <t>Starting Point: 18v
+Destination: 7Y</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 18V (blue route).
+2. Set destination to 7Y.
+3. Run the algorithm to calculate the path.
+4. Verify the calculated path.</t>
+  </si>
+  <si>
     <t>test_assign1</t>
   </si>
   <si>
@@ -295,21 +333,10 @@
 Destination: 7F</t>
   </si>
   <si>
-    <t>Package assigned to Truck 1 (Blue).</t>
-  </si>
-  <si>
     <t>test_assign2</t>
   </si>
   <si>
     <t>Verify if the function assigns the package to the next closest truck when the closest truck is full.</t>
-  </si>
-  <si>
-    <t>1. Initialize two trucks:
-Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-2. Set destination to 7F (on blue route).
-3. Enter package details: Weight = 500 kg, Size = 5 m³.
-4.Verify which truck is assigned the package.</t>
   </si>
   <si>
     <t>1. Initialize two trucks:
@@ -320,15 +347,6 @@
 4. Verify which truck is assigned the package.</t>
   </si>
   <si>
-    <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
-Package: Weight = 500 kg, Size = 5 m³.
-Destination: 7F</t>
-  </si>
-  <si>
-    <t>Package assigned to Truck 2 (Green).</t>
-  </si>
-  <si>
     <t>test_assign3</t>
   </si>
   <si>
@@ -350,104 +368,145 @@
     <t>test_assign4</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Initialize two trucks:
+    <t>test_max1</t>
+  </si>
+  <si>
+    <t>Verify if the function accepts a package that exactly fills the remaining capacity of a truck.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2000 kg and volume = 80 m³.
+2. Enter package details: Weight = 500 kg, Size = 20 m³.
+3. Verify if the package is accepted.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2000 kg, Volume = 80 m³.
+Package: Weight = 500 kg, Size = 20 m³.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Package accepted (truck reaches maximum capacity: 2500 kg and 100 m³).</t>
+  </si>
+  <si>
+    <t>test_max2</t>
+  </si>
+  <si>
+    <t>Verify if the function rejects a package that exceeds the truck's maximum weight capacity.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2400 kg and volume = 80 m³.
+2. Enter package details: Weight = 200 kg, Size = 5 m³.
+3. Verify if the package is rejected.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2400 kg, Volume = 80 m³.
+Package: Weight = 200 kg, Size = 5 m³.</t>
+  </si>
+  <si>
+    <t>Package rejected (exceeds maximum weight capacity of 2500 kg).</t>
+  </si>
+  <si>
+    <t>test_max3</t>
+  </si>
+  <si>
+    <t>Verify if the function rejects a package that exceeds the truck's maximum volume capacity.</t>
+  </si>
+  <si>
+    <t>1. Initialize a truck with weight = 2000 kg and volume = 95 m³.
+2. Enter package details: Weight = C36100 kg, Size = 10 m³.
+3. Verify if the package is rejected.</t>
+  </si>
+  <si>
+    <t>Truck: Weight = 2000 kg, Volume = 95 m³.
+Package: Weight = 100 kg, Size = 10 m³.</t>
+  </si>
+  <si>
+    <t>Package rejected (exceeds maximum volume capacity of 100 m³).</t>
+  </si>
+  <si>
+    <t>test_max4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the function assigns the package to another truck when the closest truck is at maximum capacity.
+</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
 Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
-2. Enter package details: Weight = 500 kg, Size = 5 m³.
-3. Verify the system's response.
-</t>
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination closer to Truck 1 but within reach of Truck 2 (e.g., 7F).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4. Verify which truck is assigned the package.</t>
   </si>
   <si>
     <t>Truck 1 (Blue): Weight = 2500 kg, Volume = 100 m³ (full).
-Truck 2 (Green): Weight = 2500 kg, Volume = 100 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F.</t>
+  </si>
+  <si>
+    <t>Expected Result: Package assigned to Truck 2 (Green) (next closest truck with available capacity).</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 1 kg, size = 0.5, address = (row '1', col 'B')
+2. Enter shipment weight = 300 kg and size = 20
+3. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 300 kg
+size: 2
+MAP
+map.squares[1][1] = 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 5001 kg, size = 2, address = (row '2', col 'B')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 10 kg, size = 3, address = (row '0', col 'G')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 10 kg
+size: 2
+MAP
+map.squares[0][6] != 1</t>
+  </si>
+  <si>
+    <t>1. Enter shipment weight = 20 kg, size = 2, address = (row '26', col 'A')
+2. Verify result.</t>
+  </si>
+  <si>
+    <t>SHIPMENT
+weight: 20 kg
+size: 2
+MAP
+map.squares[26][0] != 1</t>
+  </si>
+  <si>
+    <t>1. Initialize two trucks:
+Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+2. Set destination to 7F (on blue route).
+3. Enter package details: Weight = 500 kg, Size = 5 m³.
+4.Verify which truck is assigned the package.</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 1500 kg, Volume = 90 m³.
+Package: Weight = 500 kg, Size = 5 m³.
+Destination: 7F</t>
+  </si>
+  <si>
+    <t>Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
 Package: Weight = 500 kg, Size = 5 m³.</t>
   </si>
   <si>
-    <t>Expected Result: "Ships tomorrow."</t>
-  </si>
-  <si>
-    <t>test_divert1</t>
-  </si>
-  <si>
-    <t>test_divert2</t>
-  </si>
-  <si>
-    <t>test_divert4</t>
-  </si>
-  <si>
-    <t>test_divert3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify if the divert function correctly calculates the diversion path for a valid shipment.</t>
-  </si>
-  <si>
-    <t>Map: Valid grid with buildings and empty spaces.
-Truck: Route includes points like 11K, 10K, 9K, etc.
-Shipment: Weight = 500 kg, Size = 5 m³, Address = 8P.</t>
-  </si>
-  <si>
-    <t>Expected Result: Diversion path calculated (e.g., 11K → 10K → 9K → 8K → 8P).</t>
-  </si>
-  <si>
-    <t>Verify if the divert function returns -1 for an invalid shipment (invalid destination).</t>
-  </si>
-  <si>
-    <t>Map: Valid grid with buildings and empty spaces.
-Truck: Route includes points like 11K, 10K, 9K, etc.
-Shipment: Weight = 500 kg, Size = 5 m³, Address = 0A (invalid).</t>
-  </si>
-  <si>
-    <t>Expected Result: Return -1 (invalid shipment).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify if the divert function returns -1 when the destination is unreachable (blocked by buildings).</t>
-  </si>
-  <si>
-    <t>Map: Buildings block the path to the destination (e.g., 15Q).
-Truck: Route includes points like 11K, 10K, 9K, etc.
-Shipment: Weight = 500 kg, Size = 5 m³, Address = 15Q.</t>
-  </si>
-  <si>
-    <t>Expected Result: Return -1 (destination unreachable).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify if the divert function correctly prints the diversion path.</t>
-  </si>
-  <si>
-    <t>Expected Result: Printed diversion path (e.g., "divert 11K, 10K, 9K, 8K, 8P").</t>
-  </si>
-  <si>
-    <t>1. Initialize a map, a truck, and a valid shipment.
-2. Call the divert function with the shipment and truck.
-3. Verify the calculated diversion path.</t>
-  </si>
-  <si>
-    <t>1. Initialize a map, a truck, and an invalid shipment (destination outside the map or not a building).
-2. Call the divert function with the shipment and truck.
-3. Verify the return value.</t>
-  </si>
-  <si>
-    <t>1. Initialize a map with buildings blocking the path to the destination.
-Initialize a truck and a valid shipment.
-2. Call the divert function with the shipment and truck.
-3. Verify the return value."</t>
-  </si>
-  <si>
-    <t>1. Initialize a map, a truck, and a valid shipment.
-2. Call the divert function with the shipment and truck.
-3. Verify the printed diversion path.</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>test_slot1</t>
-  </si>
-  <si>
-    <t>test_slot2</t>
-  </si>
-  <si>
-    <t>test_slot3</t>
-  </si>
-  <si>
-    <t>test_slot4</t>
   </si>
   <si>
     <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns the correct index for an empty slot.</t>
@@ -465,6 +524,9 @@
     <t>Expected Result: Return 1 (index of the empty slot).</t>
   </si>
   <si>
+    <t>test_slot2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Verify if the findNextAvailableSlot function returns -1 when all slots are occupied.</t>
   </si>
   <si>
@@ -480,6 +542,9 @@
     <t>Expected Result: Return -1 (no empty slots).</t>
   </si>
   <si>
+    <t>test_slot3</t>
+  </si>
+  <si>
     <t>Verify if the findNextAvailableSlot function correctly identifies the first empty slot in a partially filled array.</t>
   </si>
   <si>
@@ -495,6 +560,9 @@
     <t>Expected Result: Return 1 (index of the first empty slot).</t>
   </si>
   <si>
+    <t>test_slot4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify if the findNextAvailableSlot function handles an empty array correctly.
 </t>
   </si>
@@ -509,6 +577,17 @@
   </si>
   <si>
     <t xml:space="preserve">Expected Result: Return -1 (no slots available).
+</t>
+  </si>
+  <si>
+    <t>&lt;- to be modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Initialize two trucks:
+Truck 1 (Blue): Weight = 5000 kg, Volume = 250 m³ (full).
+Truck 2 (Green): Weight = 5000 kg, Volume = 250 m³ (full).
+2. Enter package details: Weight = 500 kg, Size = 5 m³.
+3. Verify the system's response.
 </t>
   </si>
 </sst>
@@ -539,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +628,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,14 +672,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,6 +689,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -876,20 +968,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="5" width="26.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="6" width="26.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,14 +997,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,8 +1020,14 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -945,8 +1043,14 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -962,8 +1066,14 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -979,17 +1089,23 @@
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -997,16 +1113,22 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1014,16 +1136,22 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1031,16 +1159,22 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1048,331 +1182,459 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>97</v>
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\ms4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24477BE9-F0A4-4A38-BEF4-829AF8199A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F382B-BBEC-4333-9AE2-5A39717DAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -245,82 +245,6 @@
     <t>Returned map should display the base map with the yellow route (Y symbol).</t>
   </si>
   <si>
-    <t>test_path1</t>
-  </si>
-  <si>
-    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 1A (office location). 
-2. Set destination to 5E.  
-3. Run the algorithm to calculate the path. 
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Point: 1A
-Destination: 5E	</t>
-  </si>
-  <si>
-    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
-  </si>
-  <si>
-    <t>test_path2</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
-  </si>
-  <si>
-    <t>Starting Point: 10K
-Destination: 17L</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 10K .
-2. Set destination to 17L.
-3. Run the algorithm to calculate the path.	
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
-  </si>
-  <si>
-    <t>test_path3</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 6E
-2. Set destination to 2H (blocked by buildings)
-3. Run the algorithm to calculate the path.	
-4. Verify the system's response.</t>
-  </si>
-  <si>
-    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
-  </si>
-  <si>
-    <t>Starting Point: 6E
-Destination: 2H</t>
-  </si>
-  <si>
-    <t>test_path4</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm handles a diversion path around a building.</t>
-  </si>
-  <si>
-    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
-  </si>
-  <si>
-    <t>Starting Point: 18v
-Destination: 7Y</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 18V (blue route).
-2. Set destination to 7Y.
-3. Run the algorithm to calculate the path.
-4. Verify the calculated path.</t>
-  </si>
-  <si>
     <t>test_assign1</t>
   </si>
   <si>
@@ -589,6 +513,78 @@
 2. Enter package details: Weight = 500 kg, Size = 5 m³.
 3. Verify the system's response.
 </t>
+  </si>
+  <si>
+    <t>test_divert1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly calculates the diversion path for a valid shipment.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the calculated diversion path.</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 8P.</t>
+  </si>
+  <si>
+    <t>Expected Result: Diversion path calculated (e.g., 11K → 10K → 9K → 8K → 8P).</t>
+  </si>
+  <si>
+    <t>test_divert2</t>
+  </si>
+  <si>
+    <t>Verify if the divert function returns -1 for an invalid shipment (invalid destination).</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and an invalid shipment (destination outside the map or not a building).
+2. Call the divert function with the shipment and truck.
+3. Verify the return value.</t>
+  </si>
+  <si>
+    <t>Map: Valid grid with buildings and empty spaces.
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 0A (invalid).</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (invalid shipment).</t>
+  </si>
+  <si>
+    <t>test_divert3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function returns -1 when the destination is unreachable (blocked by buildings).</t>
+  </si>
+  <si>
+    <t>1. Initialize a map with buildings blocking the path to the destination.
+Initialize a truck and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the return value."</t>
+  </si>
+  <si>
+    <t>Map: Buildings block the path to the destination (e.g., 15Q).
+Truck: Route includes points like 11K, 10K, 9K, etc.
+Shipment: Weight = 500 kg, Size = 5 m³, Address = 15Q.</t>
+  </si>
+  <si>
+    <t>Expected Result: Return -1 (destination unreachable).</t>
+  </si>
+  <si>
+    <t>test_divert4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify if the divert function correctly prints the diversion path.</t>
+  </si>
+  <si>
+    <t>1. Initialize a map, a truck, and a valid shipment.
+2. Call the divert function with the shipment and truck.
+3. Verify the printed diversion path.</t>
+  </si>
+  <si>
+    <t>Expected Result: Printed diversion path (e.g., "divert 11K, 10K, 9K, 8K, 8P").</t>
   </si>
 </sst>
 </file>
@@ -650,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -666,12 +662,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -682,6 +672,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1047,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1070,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1113,10 +1122,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
@@ -1125,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1136,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1159,10 +1168,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1182,10 +1191,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -1194,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,73 +1294,81 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>71</v>
-      </c>
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1364,16 +1381,16 @@
     </row>
     <row r="22" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1382,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1405,21 +1422,21 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1428,21 +1445,21 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
@@ -1451,93 +1468,93 @@
         <v>-1</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -1548,84 +1565,84 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F382B-BBEC-4333-9AE2-5A39717DAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7333C11E-D403-40AB-BD33-022566AA81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,88 +161,80 @@
 map.squares[1][2] = 1</t>
   </si>
   <si>
-    <t>test_addRoute1</t>
-  </si>
-  <si>
-    <t>test_addRoute2</t>
-  </si>
-  <si>
-    <t>test_addRoute3</t>
-  </si>
-  <si>
-    <t>test_addRoute4</t>
-  </si>
-  <si>
-    <t>Test that the function prints nothing when two routes are incorrectly passed instead of one map and one route.</t>
-  </si>
-  <si>
-    <t>Test that the function properly adds the blue route to the map</t>
-  </si>
-  <si>
-    <t>Test that the function properly adds the yellow route to the map</t>
-  </si>
-  <si>
-    <t>Test that the function properly adds the green route to the map</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
-2. Initialize a Route struct variable with getBlueRoute().
-3. Initialize a Map struct with addRoute(), adding the base map and the blue route.
-4. Print the map with route using printMap().
-5. Verify results.</t>
-  </si>
-  <si>
-    <t>1. Initialize a Route struct variable with getYellowRoute().
-2. Initialize a Route struct variable with getBlueRoute().
-3. Initialize a Map struct with addRoute(), adding both routes.
-4. Print the map with route using printMap().
-5. Verify results.</t>
-  </si>
-  <si>
-    <t>Should print/display nothing since there is no base map to add routes.</t>
-  </si>
-  <si>
-    <t>Returned map should display the base map with the blue route (B symbol).</t>
-  </si>
-  <si>
-    <t>baseMap = populateMap() (get the base map)
-newRoute = getBlueRoute()
-addRoute(&amp;baseMap, &amp;newRoute)</t>
-  </si>
-  <si>
-    <t>newRoute1 = getYellowRoute()
-newRoute2 = getBlueRoute()
-addRoute(&amp;newRoute1, &amp;newRoute2)</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
-2. Initialize a Route struct variable with getGreenRoute().
-3. Initialize a Map struct with addRoute(), adding the base map and the green route.
-4. Print the map with route using printMap().
-5. Verify results.</t>
-  </si>
-  <si>
-    <t>baseMap = populateMap() (get the base map)
-newRoute = getGreenRoute()
-addRoute(&amp;baseMap, &amp;newRoute)</t>
-  </si>
-  <si>
-    <t>1. Initialize a map using populateMap(), stored in a Map struct variable.
-2. Initialize a Route struct variable with getYellowRoute().
-3. Initialize a Map struct with addRoute(), adding the base map and the yellow route.
-4. Print the map with route using printMap().
-5. Verify results.</t>
-  </si>
-  <si>
-    <t>baseMap = populateMap() (get the base map)
-newRoute = getYellowRoute()
-addRoute(&amp;baseMap, &amp;newRoute)</t>
-  </si>
-  <si>
-    <t>Returned map should display the base map with the green route (G symbol).</t>
-  </si>
-  <si>
-    <t>Returned map should display the base map with the yellow route (Y symbol).</t>
+    <t>test_path1</t>
+  </si>
+  <si>
+    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 1A (office location). 
+2. Set destination to 5E.  
+3. Run the algorithm to calculate the path. 
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Point: 1A
+Destination: 5E	</t>
+  </si>
+  <si>
+    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
+  </si>
+  <si>
+    <t>test_path2</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
+  </si>
+  <si>
+    <t>Starting Point: 10K
+Destination: 17L</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 10K .
+2. Set destination to 17L.
+3. Run the algorithm to calculate the path.	
+4. Verify the calculated path.</t>
+  </si>
+  <si>
+    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
+  </si>
+  <si>
+    <t>test_path3</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 6E
+2. Set destination to 2H (blocked by buildings)
+3. Run the algorithm to calculate the path.	
+4. Verify the system's response.</t>
+  </si>
+  <si>
+    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
+  </si>
+  <si>
+    <t>Starting Point: 6E
+Destination: 2H</t>
+  </si>
+  <si>
+    <t>test_path4</t>
+  </si>
+  <si>
+    <t>Verify if the algorithm handles a diversion path around a building.</t>
+  </si>
+  <si>
+    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
+  </si>
+  <si>
+    <t>Starting Point: 18v
+Destination: 7Y</t>
+  </si>
+  <si>
+    <t>1. Set starting point to 18V (blue route).
+2. Set destination to 7Y.
+3. Run the algorithm to calculate the path.
+4. Verify the calculated path.</t>
   </si>
   <si>
     <t>test_assign1</t>
@@ -646,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -672,6 +664,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -979,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="103" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,75 +1217,81 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -1295,80 +1303,80 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7333C11E-D403-40AB-BD33-022566AA81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3079CD1F-12D2-4A9F-B520-50670B83BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -494,9 +494,6 @@
   <si>
     <t xml:space="preserve">Expected Result: Return -1 (no slots available).
 </t>
-  </si>
-  <si>
-    <t>&lt;- to be modified</t>
   </si>
   <si>
     <t xml:space="preserve">1. Initialize two trucks:
@@ -606,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,12 +613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,10 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -693,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,80 +1208,80 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -1302,83 +1292,83 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1387,7 +1377,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1410,7 +1400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1456,7 +1446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -1464,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>94</v>
@@ -1479,16 +1469,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>96</v>
       </c>
@@ -1507,7 +1497,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>101</v>
       </c>
@@ -1526,7 +1516,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>106</v>
       </c>
@@ -1545,7 +1535,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>111</v>
       </c>
@@ -1564,7 +1554,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1572,85 +1562,90 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="H31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3079CD1F-12D2-4A9F-B520-50670B83BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86DE8F-C651-4EC7-932C-D1331B0C4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1579,9 @@
       <c r="E32" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
       <c r="G32" s="21" t="s">
         <v>95</v>
       </c>
@@ -1600,7 +1602,9 @@
       <c r="E33" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="21">
+        <v>-1</v>
+      </c>
       <c r="G33" s="21" t="s">
         <v>95</v>
       </c>
@@ -1621,7 +1625,9 @@
       <c r="E34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="21">
+        <v>-1</v>
+      </c>
       <c r="G34" s="21" t="s">
         <v>95</v>
       </c>
@@ -1642,7 +1648,9 @@
       <c r="E35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
       <c r="G35" s="21" t="s">
         <v>95</v>
       </c>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86DE8F-C651-4EC7-932C-D1331B0C4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BC1A4-5807-432B-BDD4-17ECF8FA98FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -161,82 +161,6 @@
 map.squares[1][2] = 1</t>
   </si>
   <si>
-    <t>test_path1</t>
-  </si>
-  <si>
-    <t>Verify if the a algorithm finds the shortest path from 1A to 5E.</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 1A (office location). 
-2. Set destination to 5E.  
-3. Run the algorithm to calculate the path. 
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Point: 1A
-Destination: 5E	</t>
-  </si>
-  <si>
-    <t>Shortest path: 1A → 2A → 3A → 4A → 5A → 5B → 5C → 5D → 5E.</t>
-  </si>
-  <si>
-    <t>test_path2</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm finds the shortest path from 10K to 15P.</t>
-  </si>
-  <si>
-    <t>Starting Point: 10K
-Destination: 17L</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 10K .
-2. Set destination to 17L.
-3. Run the algorithm to calculate the path.	
-4. Verify the calculated path.</t>
-  </si>
-  <si>
-    <t>Shortest path: 10K → 11K → 12K → 13K → 14K → 15K → 16K → 17K → 17L</t>
-  </si>
-  <si>
-    <t>test_path3</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm detects an unreachable destination (e.g., blocked by buildings).</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 6E
-2. Set destination to 2H (blocked by buildings)
-3. Run the algorithm to calculate the path.	
-4. Verify the system's response.</t>
-  </si>
-  <si>
-    <t>Destination unreachable. Package cannot be delivered / ERROR.</t>
-  </si>
-  <si>
-    <t>Starting Point: 6E
-Destination: 2H</t>
-  </si>
-  <si>
-    <t>test_path4</t>
-  </si>
-  <si>
-    <t>Verify if the algorithm handles a diversion path around a building.</t>
-  </si>
-  <si>
-    <t>Diversion path: 18V → 17V → 16V → 15V → 14V → 13V → 12V → 11V → 10V → 9V → 8V → 7V → 7W → 7X → 7Y .</t>
-  </si>
-  <si>
-    <t>Starting Point: 18v
-Destination: 7Y</t>
-  </si>
-  <si>
-    <t>1. Set starting point to 18V (blue route).
-2. Set destination to 7Y.
-3. Run the algorithm to calculate the path.
-4. Verify the calculated path.</t>
-  </si>
-  <si>
     <t>test_assign1</t>
   </si>
   <si>
@@ -574,6 +498,12 @@
   </si>
   <si>
     <t>Expected Result: Printed diversion path (e.g., "divert 11K, 10K, 9K, 8K, 8P").</t>
+  </si>
+  <si>
+    <t>divert 11K, 10K, 9K, 8K, 8P</t>
+  </si>
+  <si>
+    <t>Diversion path 11K → 10K → 9K → 8K → 8P).</t>
   </si>
 </sst>
 </file>
@@ -629,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,22 +575,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1048,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1071,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1094,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,10 +1033,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
@@ -1126,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1137,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -1149,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1160,10 +1079,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1172,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1183,10 +1102,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -1195,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1207,81 +1126,97 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
+    <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -1292,267 +1227,299 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="F28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="F29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -1563,107 +1530,6 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="21">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="21">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="21">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/whitebox-test-cases-g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\winter25-sft221-nee-3\Documents\Testing\TestDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BC1A4-5807-432B-BDD4-17ECF8FA98FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F6C4C-D8DC-49BB-8DC5-52E23BF7CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
